--- a/generateMonthlySummaryReport/add-on software/assets/transactions/procedureCountList.xlsx
+++ b/generateMonthlySummaryReport/add-on software/assets/transactions/procedureCountList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Usbong\java\generateMonthlySummaryReport\add-on software\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USBONG\GitHub\slhcc\generateMonthlySummaryReport\add-on software\assets\transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="12">
   <si>
     <t>JAN</t>
   </si>
@@ -564,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z3:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>2008</v>
       </c>
@@ -621,8 +621,12 @@
         <v>2019</v>
       </c>
       <c r="X1" s="10"/>
+      <c r="Y1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="Z1" s="10"/>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -647,8 +651,10 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
       <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
     </row>
-    <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
@@ -721,8 +727,14 @@
       <c r="X3" s="16">
         <v>1</v>
       </c>
+      <c r="Y3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
@@ -795,8 +807,14 @@
       <c r="X4" s="16">
         <v>4</v>
       </c>
+      <c r="Y4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
@@ -869,8 +887,14 @@
       <c r="X5" s="16">
         <v>7</v>
       </c>
+      <c r="Y5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>3</v>
       </c>
@@ -943,8 +967,14 @@
       <c r="X6" s="16">
         <v>15</v>
       </c>
+      <c r="Y6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1047,14 @@
       <c r="X7" s="16">
         <v>-1</v>
       </c>
+      <c r="Y7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>5</v>
       </c>
@@ -1091,8 +1127,14 @@
       <c r="X8" s="16">
         <v>-1</v>
       </c>
+      <c r="Y8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1165,8 +1207,14 @@
       <c r="X9" s="16">
         <v>-1</v>
       </c>
+      <c r="Y9" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>7</v>
       </c>
@@ -1239,8 +1287,14 @@
       <c r="X10" s="16">
         <v>-1</v>
       </c>
+      <c r="Y10" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>8</v>
       </c>
@@ -1313,8 +1367,14 @@
       <c r="X11" s="16">
         <v>-1</v>
       </c>
+      <c r="Y11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>9</v>
       </c>
@@ -1387,8 +1447,14 @@
       <c r="X12" s="16">
         <v>-1</v>
       </c>
+      <c r="Y12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>10</v>
       </c>
@@ -1461,8 +1527,14 @@
       <c r="X13" s="16">
         <v>-1</v>
       </c>
+      <c r="Y13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
@@ -1533,6 +1605,12 @@
         <v>11</v>
       </c>
       <c r="X14" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="16">
         <v>-1</v>
       </c>
     </row>
